--- a/medicine/Psychotrope/Byggvir/Byggvir.xlsx
+++ b/medicine/Psychotrope/Byggvir/Byggvir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Figure mineure de la mythologie scandinave, Byggvir est, avec sa femme Beyla, un des serviteurs de Freyr. Il est considéré comme la personnalisation de l’orge (dont on fait la bière), parce que bygg signifie orge en vieux norrois.
 L’unique apparition connue de Byggvir se trouve aux strophes 43-46 de la Lokasenna, où il intervient lorsque Loki s’en prend à Freyr :
@@ -517,7 +529,9 @@
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Codex Regius écrit "Beyggvir" dans le prologue en prose et la strophe 45 mais garde bien "Byggvir" dans l’annonce de la strophe 43 et à la strophe 46.
 </t>
@@ -548,7 +562,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">- DUMEZIL, Georges – « Deux petits dieux scandinaves : Byggvir et Beyla », dans : Mythes et dieux de la Scandinavie ancienne – Paris : Gallimard, 2000 (coll. « Bibliothèque des sciences humaines »)
  Portail de la mythologie nordique   Portail de la bière                    </t>
